--- a/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4222045781648519</v>
+        <v>0.4034805471354444</v>
       </c>
       <c r="C11" t="n">
-        <v>1.486031141713846</v>
+        <v>1.448784841308461</v>
       </c>
       <c r="D11" t="n">
-        <v>2.39654543374018</v>
+        <v>2.303594520659471</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4034805471354444</v>
+        <v>0.3700821215908768</v>
       </c>
       <c r="C11" t="n">
-        <v>1.448784841308461</v>
+        <v>1.340138723374587</v>
       </c>
       <c r="D11" t="n">
-        <v>2.303594520659471</v>
+        <v>1.898863623414492</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/0 dias a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.018408075445056</v>
+        <v>0.07018408075445057</v>
       </c>
       <c r="C2" t="n">
-        <v>24.12200615022694</v>
+        <v>0.2412200615022694</v>
       </c>
       <c r="D2" t="n">
-        <v>32.27336327472675</v>
+        <v>0.3227336327472676</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.95772128569904</v>
+        <v>0.1095772128569904</v>
       </c>
       <c r="C3" t="n">
-        <v>38.91198181312752</v>
+        <v>0.3891198181312752</v>
       </c>
       <c r="D3" t="n">
-        <v>50.29045315885713</v>
+        <v>0.5029045315885713</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.655987270533793</v>
+        <v>0.05655987270533793</v>
       </c>
       <c r="C4" t="n">
-        <v>19.41203078293383</v>
+        <v>0.1941203078293383</v>
       </c>
       <c r="D4" t="n">
-        <v>26.35229726305617</v>
+        <v>0.2635229726305617</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.971985497477096</v>
+        <v>0.06971985497477096</v>
       </c>
       <c r="C5" t="n">
-        <v>24.10632628186983</v>
+        <v>0.2410632628186983</v>
       </c>
       <c r="D5" t="n">
-        <v>31.79002971342327</v>
+        <v>0.3179002971342327</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.898087117559924</v>
+        <v>0.06898087117559924</v>
       </c>
       <c r="C6" t="n">
-        <v>23.98999879523349</v>
+        <v>0.2398999879523349</v>
       </c>
       <c r="D6" t="n">
-        <v>30.98666719632006</v>
+        <v>0.3098666719632006</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.585338631847483</v>
+        <v>0.09585338631847483</v>
       </c>
       <c r="C7" t="n">
-        <v>34.65764358285048</v>
+        <v>0.3465764358285048</v>
       </c>
       <c r="D7" t="n">
-        <v>46.28283033566634</v>
+        <v>0.4628283033566634</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.99907790692349</v>
+        <v>0.1099907790692349</v>
       </c>
       <c r="C8" t="n">
-        <v>39.08385179648447</v>
+        <v>0.3908385179648447</v>
       </c>
       <c r="D8" t="n">
-        <v>50.37762741539073</v>
+        <v>0.5037762741539072</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.10759116349284</v>
+        <v>0.1110759116349284</v>
       </c>
       <c r="C9" t="n">
-        <v>39.51319278884922</v>
+        <v>0.3951319278884923</v>
       </c>
       <c r="D9" t="n">
-        <v>51.26669858638726</v>
+        <v>0.5126669858638726</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.66837115452863</v>
+        <v>0.2066837115452863</v>
       </c>
       <c r="C10" t="n">
-        <v>98.44312851369062</v>
+        <v>0.9844312851369063</v>
       </c>
       <c r="D10" t="n">
-        <v>98.68160695568447</v>
+        <v>0.9868160695568448</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3700821215908768</v>
+        <v>0.003930580597262927</v>
       </c>
       <c r="C11" t="n">
-        <v>1.340138723374587</v>
+        <v>0.01406291096518791</v>
       </c>
       <c r="D11" t="n">
-        <v>1.898863623414492</v>
+        <v>0.02151803735596564</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01364410503585241</v>
+        <v>0.0001364410503585241</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05247602323154152</v>
+        <v>0.0005247602323154152</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07964588885656355</v>
+        <v>0.0007964588885656356</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6615587310082948</v>
+        <v>0.006615587310082948</v>
       </c>
       <c r="C13" t="n">
-        <v>2.392669698244836</v>
+        <v>0.02392669698244836</v>
       </c>
       <c r="D13" t="n">
-        <v>3.149874655036224</v>
+        <v>0.03149874655036224</v>
       </c>
     </row>
   </sheetData>
